--- a/Data/AveragePhDStipend_EuropeanUnion.xlsx
+++ b/Data/AveragePhDStipend_EuropeanUnion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\Documents\CodeProjects\00_OwnProjects\StateOfPostGradLiving\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C483BF80-52FB-4D20-9F67-CBA5A6E6A141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32A833B-0C82-4FC5-AC9E-AF32ABEA7D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EE747987-661C-458D-826F-6ADF49BD9E65}"/>
   </bookViews>
@@ -36,20 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Country</t>
   </si>
   <si>
-    <t>MinimumWage_gross</t>
-  </si>
-  <si>
-    <t>MinimumWage_net</t>
-  </si>
-  <si>
-    <t>Official</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -135,13 +126,34 @@
   </si>
   <si>
     <t>Sweden</t>
+  </si>
+  <si>
+    <t>MinimumPhDStipend_gross</t>
+  </si>
+  <si>
+    <t>MinimumPhDStipend_Net</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phd.pages.ist.ac.at/funding-and-awards/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not taxed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://academicpositions.com/career-advice/phd-postdoc-and-professor-salaries-in-belgium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bta.bg/en/news/culture/726096-phd-students-in-state-institutions-to-receive-bgn-1-227-monthly-stipend </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +166,14 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,14 +193,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -197,7 +229,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -513,174 +545,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5665E000-43D6-446C-BE43-FAA7016B3FFD}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.44140625" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" s="3">
+        <v>2993</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1563</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B3" s="3">
+        <v>2200</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2200</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B4" s="3">
+        <v>627.38</v>
+      </c>
+      <c r="C4" s="3">
+        <v>560</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{28AE7AF3-8E85-48E6-A69C-53A2509ED666}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{70507A08-68F2-4052-889B-3F80C3C0C714}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{DCF5DE65-BD36-494A-8714-24CE03454878}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/AveragePhDStipend_EuropeanUnion.xlsx
+++ b/Data/AveragePhDStipend_EuropeanUnion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\Documents\CodeProjects\00_OwnProjects\StateOfPostGradLiving\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32A833B-0C82-4FC5-AC9E-AF32ABEA7D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5942BD2-6D29-46C8-9253-3EB20A4ADB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EE747987-661C-458D-826F-6ADF49BD9E65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Country</t>
   </si>
@@ -147,13 +147,34 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.bta.bg/en/news/culture/726096-phd-students-in-state-institutions-to-receive-bgn-1-227-monthly-stipend </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mojaplaca.hr/en/salaryinfo/education-science-research </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cut.ac.cy/news/article/?languageId=1&amp;contentId=555880 </t>
+  </si>
+  <si>
+    <t>Not taxed , below 19500€ a year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://intranet.fel.cvut.cz/en/education/phd/information.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://studyindenmark.dk/study-options/what-can-i-study/phd-and-research </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.emu.ee/en/doctoral-studies-phd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tieteentekijat.fi/en/support-of-working-life/compensation-recommendation/ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +195,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -210,6 +237,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -547,14 +575,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5665E000-43D6-446C-BE43-FAA7016B3FFD}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.44140625" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
@@ -627,66 +655,110 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="B5" s="3">
+        <v>1092</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1092</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="58.2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="B6" s="3">
+        <v>683</v>
+      </c>
+      <c r="C6" s="3">
+        <v>683</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="B7" s="3">
+        <v>1026.1500000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1026.1500000000001</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="3">
+        <v>4286.09</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2868.47</v>
+      </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3">
+        <v>1951</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1494.96</v>
+      </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1454.79</v>
+      </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3">
+        <v>1684.93</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -695,7 +767,6 @@
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -785,7 +856,14 @@
     <hyperlink ref="E2" r:id="rId1" xr:uid="{28AE7AF3-8E85-48E6-A69C-53A2509ED666}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{70507A08-68F2-4052-889B-3F80C3C0C714}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{DCF5DE65-BD36-494A-8714-24CE03454878}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{C4B6D476-9738-433D-988D-5651751B8D82}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{EB16975F-C314-4940-86E7-5AEE5F60B41A}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{54F50D30-A6AE-45E1-98E2-A2393758D7C2}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{A74242A6-D3B3-40C8-A56E-8C5BD600A0CB}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{14524A27-3A29-4326-99E9-C270599FFD36}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{90F92008-743F-40C2-B02E-1A8B022D1A04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Data/AveragePhDStipend_EuropeanUnion.xlsx
+++ b/Data/AveragePhDStipend_EuropeanUnion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\Documents\CodeProjects\00_OwnProjects\StateOfPostGradLiving\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5942BD2-6D29-46C8-9253-3EB20A4ADB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5A475D-BA8F-4427-8410-15ACEDF263C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EE747987-661C-458D-826F-6ADF49BD9E65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Country</t>
   </si>
@@ -168,13 +168,31 @@
   </si>
   <si>
     <t xml:space="preserve">https://tieteentekijat.fi/en/support-of-working-life/compensation-recommendation/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ed393.sorbonne-universite.fr/en/phd-admission/phd-grant-contrat-doctoral </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.academics.com/guide/phd-salary-germany </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.standyou.com/study-abroad/phd-in-greece/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tka.hu/docs/palyazatok/call_incoming_partial_studies_2025_26.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.researchireland.ie/funding/government-ireland-postgraduate/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.unibo.it/en/study/phd-professional-masters-specialisation-schools-and-other-programmes/phd/scholarships-and-funding-for-phds </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,16 +220,56 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF33475C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -219,25 +277,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -573,281 +661,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5665E000-43D6-446C-BE43-FAA7016B3FFD}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="62" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>2993</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>1563</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>2200</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>2200</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>627.38</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>560</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="29.4" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>1092</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>1092</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="58.2" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:11" ht="58.2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>683</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>683</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="29.4" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>1026.1500000000001</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>1026.1500000000001</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="29.4" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:11" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>4286.09</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>2868.47</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>1951</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1494.96</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="29.4" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:11" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>2100</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>1454.79</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>1684.93</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1598</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="B12" s="2">
+        <v>3009.33</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2057.2399999999998</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="1">
+        <v>650</v>
+      </c>
+      <c r="C13" s="1">
+        <v>650</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="1">
+        <v>355.88</v>
+      </c>
+      <c r="C14" s="1">
+        <v>355.88</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="1">
+        <v>2083</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2083</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="1">
+        <v>1353.5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1353.5</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -862,8 +995,14 @@
     <hyperlink ref="E8" r:id="rId7" xr:uid="{A74242A6-D3B3-40C8-A56E-8C5BD600A0CB}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{14524A27-3A29-4326-99E9-C270599FFD36}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{90F92008-743F-40C2-B02E-1A8B022D1A04}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{7EA71742-0EA1-4613-AC3C-3DAD41503243}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{216F1AAE-7FAC-4154-9FE8-79E73042534A}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{1AA99021-520C-405C-A25D-6E9A29444F9A}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{9ADC0129-5EFC-4112-AAC3-4302C93C7DF6}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{EDCF0D69-A020-4C1F-B6E1-0F75092FEA02}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{0EA4E3A2-7FEC-4DDF-9B5C-8DAF5898C574}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Data/AveragePhDStipend_EuropeanUnion.xlsx
+++ b/Data/AveragePhDStipend_EuropeanUnion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\Documents\CodeProjects\00_OwnProjects\StateOfPostGradLiving\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5A475D-BA8F-4427-8410-15ACEDF263C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9691B4-04E7-4BFA-8A1D-22C415528F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EE747987-661C-458D-826F-6ADF49BD9E65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>Country</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>LastChecked</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -186,6 +183,51 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.unibo.it/en/study/phd-professional-masters-specialisation-schools-and-other-programmes/phd/scholarships-and-funding-for-phds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 months per year </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://studyinlatvia.lv/scholarships </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eurydice.eacea.ec.europa.eu/eurypedia/lithuania/higher-education-funding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fnr.lu/funding-instruments/afr/ </t>
+  </si>
+  <si>
+    <t>stipend, not taxed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eui.eu/en/services/academic-service/doctoral-programme/funding-information/malta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.staff.universiteitleiden.nl/human-resources/conditions-of-employment-salary-and-allowance/salary/salary-scales-and-periodic-rise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gov.pl/web/science/doctoral-education </t>
+  </si>
+  <si>
+    <t xml:space="preserve">social security voluntary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fct.pt/wp-content/uploads/2025/02/Tabela_valores_SMM_2025.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scholarshiproar.com/romania-government-scholarships/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://slovakconsulate.co.tz/scholarship.php </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uni-lj.si/en/research/young-researchers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://aphil.ub.edu/grants/fpu-fpu-ayudas-predoctorales-ub </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.miun.se/en/staff/employee/Salary-setting/Postgraduate-students/ </t>
   </si>
 </sst>
 </file>
@@ -661,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5665E000-43D6-446C-BE43-FAA7016B3FFD}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,33 +716,29 @@
     <col min="3" max="3" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="1"/>
     <col min="5" max="5" width="62" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>2993</v>
@@ -709,12 +747,12 @@
         <v>1563</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>2200</v>
@@ -723,15 +761,15 @@
         <v>2200</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>627.38</v>
@@ -740,12 +778,12 @@
         <v>560</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>1092</v>
@@ -754,15 +792,15 @@
         <v>1092</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="58.2" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="58.2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>683</v>
@@ -771,15 +809,15 @@
         <v>683</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>1026.1500000000001</v>
@@ -788,15 +826,15 @@
         <v>1026.1500000000001</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="29.4" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>4286.09</v>
@@ -805,12 +843,12 @@
         <v>2868.47</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>1951</v>
@@ -819,12 +857,12 @@
         <v>1494.96</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="29.4" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>2100</v>
@@ -833,13 +871,13 @@
         <v>1454.79</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="29.4" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
         <v>2300</v>
@@ -848,12 +886,12 @@
         <v>1598</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
         <v>3009.33</v>
@@ -862,12 +900,12 @@
         <v>2057.2399999999998</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>650</v>
@@ -876,13 +914,13 @@
         <v>650</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>355.88</v>
@@ -891,12 +929,12 @@
         <v>355.88</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="29.4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>2083</v>
@@ -905,12 +943,12 @@
         <v>2083</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="29.4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>1353.5</v>
@@ -919,69 +957,186 @@
         <v>1353.5</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" ht="43.8" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="9">
+        <v>700</v>
+      </c>
+      <c r="C17" s="1">
+        <v>700</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="E17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="1">
+        <v>1045</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1045</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="1">
+        <v>3059</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2629.7</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="1">
+        <v>814.65</v>
+      </c>
+      <c r="C22" s="1">
+        <v>722.92</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="43.8" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="1">
+        <v>1309.6400000000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1200.56</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="1">
+        <v>85</v>
+      </c>
+      <c r="C24" s="1">
+        <v>85</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="1">
+        <v>1025.5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1025.5</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="1">
+        <v>2332.62</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="1">
+        <v>1173</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1173</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>29</v>
+      <c r="B28" s="1">
+        <v>2985.92</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2387.48</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1001,8 +1156,20 @@
     <hyperlink ref="E14" r:id="rId13" xr:uid="{9ADC0129-5EFC-4112-AAC3-4302C93C7DF6}"/>
     <hyperlink ref="E15" r:id="rId14" xr:uid="{EDCF0D69-A020-4C1F-B6E1-0F75092FEA02}"/>
     <hyperlink ref="E16" r:id="rId15" xr:uid="{0EA4E3A2-7FEC-4DDF-9B5C-8DAF5898C574}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{783E1FCF-46DE-479C-BFDB-0D3B7B86828A}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{035929E3-658D-4B1E-B466-49E7DE5F21A3}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{B9FA3558-A8BE-4C36-B9DE-F8BC8EC3DBF1}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{F29FDB96-3813-46EA-8B65-F1D5796C3FB1}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{A368A022-0443-4CCD-8CCC-D091131DDD2B}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{BE1366C8-E6CA-4BAE-B420-A6601A8E8FFC}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{A6B20F2F-4352-43A9-93AA-0E9394168B61}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{F9F51663-7635-425E-A4F0-D8465853C2FD}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{3528C6A4-2255-4F12-8DCC-E480F3BF084A}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{B8E778F3-EF2F-404E-B110-B10131FD635E}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{B813961F-9A0F-4945-A71D-43E89B86CB5A}"/>
+    <hyperlink ref="E28" r:id="rId27" xr:uid="{5E81A47F-069B-4F4D-8C77-8453B9B7F187}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>